--- a/src/excels/immune/top_genes_cluster_0.5.xlsx
+++ b/src/excels/immune/top_genes_cluster_0.5.xlsx
@@ -1711,17 +1711,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>mt-Co1</t>
+          <t>Dach1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.956467151641846</v>
+        <v>2.63963770866394</v>
       </c>
       <c r="C3" t="n">
-        <v>3.448221206665039</v>
+        <v>1.73814332485199</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1324885616207228</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0.5161290322580645</v>
@@ -1730,58 +1730,58 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Dach1</t>
+          <t>Atp1b3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.63963770866394</v>
+        <v>3.028907299041748</v>
       </c>
       <c r="C4" t="n">
-        <v>1.73814332485199</v>
+        <v>1.610024690628052</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.5483870967741935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Atp1b3</t>
+          <t>H2-K1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.028907299041748</v>
+        <v>2.945871829986572</v>
       </c>
       <c r="C5" t="n">
-        <v>1.610024690628052</v>
+        <v>1.457296848297119</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5483870967741935</v>
+        <v>0.5161290322580645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>H2-K1</t>
+          <t>Agfg1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.945871829986572</v>
+        <v>3.662411451339722</v>
       </c>
       <c r="C6" t="n">
-        <v>1.457296848297119</v>
+        <v>1.448886752128601</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.3305573641831065</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
   </sheetData>
